--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>ghfsdtyfg@gmail.com</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Test1234</t>
+  </si>
+  <si>
+    <t>gfsdtyfg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1080,7 +1082,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1184,187 +1186,187 @@
         <v>50</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="loginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Email" sheetId="3" r:id="rId2"/>
+    <sheet name="loginTest" sheetId="2" r:id="rId3"/>
     <sheet name="verifyProductPrice" sheetId="4" r:id="rId4"/>
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
     <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>TestCases</t>
   </si>
@@ -194,9 +194,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -215,30 +212,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
     <t>hgsdtyf</t>
   </si>
   <si>
@@ -251,36 +224,12 @@
     <t>1985</t>
   </si>
   <si>
-    <t>EDFG123</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>91436</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>8489875678</t>
-  </si>
-  <si>
     <t>TestUser</t>
   </si>
   <si>
     <t>UserTest</t>
   </si>
   <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
     <t>newtest2@gmail.com</t>
   </si>
   <si>
@@ -293,7 +242,10 @@
     <t>Test1234</t>
   </si>
   <si>
-    <t>gfsdtyfg@gmail.com</t>
+    <t>gfsdyfg@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1021,6 +973,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1046,10 +1030,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1059,38 +1043,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1156,32 +1108,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1:A1048576 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
@@ -1203,177 +1147,81 @@
       <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:A1048576 A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>TestCases</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>hgsdtyf</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -224,18 +221,9 @@
     <t>1985</t>
   </si>
   <si>
-    <t>TestUser</t>
-  </si>
-  <si>
     <t>UserTest</t>
   </si>
   <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
-  </si>
-  <si>
     <t>opeye@gmail.com</t>
   </si>
   <si>
@@ -245,7 +233,22 @@
     <t>gfsdyfg@gmail.com</t>
   </si>
   <si>
-    <t>newtest10@gmail.com</t>
+    <t>newt@gmail.com</t>
+  </si>
+  <si>
+    <t>qas2@gmail.com</t>
+  </si>
+  <si>
+    <t>qad3@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUsee</t>
+  </si>
+  <si>
+    <t>TestUsew</t>
+  </si>
+  <si>
+    <t>TestUsey</t>
   </si>
 </sst>
 </file>
@@ -991,7 +994,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1033,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,71 +1153,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>TestCases</t>
   </si>
@@ -233,15 +233,6 @@
     <t>gfsdyfg@gmail.com</t>
   </si>
   <si>
-    <t>newt@gmail.com</t>
-  </si>
-  <si>
-    <t>qas2@gmail.com</t>
-  </si>
-  <si>
-    <t>qad3@gmail.com</t>
-  </si>
-  <si>
     <t>TestUsee</t>
   </si>
   <si>
@@ -249,6 +240,18 @@
   </si>
   <si>
     <t>TestUsey</t>
+  </si>
+  <si>
+    <t>newt1@gmail.com</t>
+  </si>
+  <si>
+    <t>qas21@gmail.com</t>
+  </si>
+  <si>
+    <t>qad31@gmail.com</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,16 +1156,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>62</v>
@@ -1176,16 +1179,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>62</v>
@@ -1199,16 +1202,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>62</v>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -251,7 +251,7 @@
     <t>qad31@gmail.com</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>eeeeeee</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>TestCases</t>
   </si>
@@ -218,9 +218,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>1985</t>
-  </si>
-  <si>
     <t>UserTest</t>
   </si>
   <si>
@@ -242,16 +239,25 @@
     <t>TestUsey</t>
   </si>
   <si>
-    <t>newt1@gmail.com</t>
-  </si>
-  <si>
-    <t>qas21@gmail.com</t>
-  </si>
-  <si>
-    <t>qad31@gmail.com</t>
-  </si>
-  <si>
-    <t>eeeeeee</t>
+    <t>new12t1@gmail.com</t>
+  </si>
+  <si>
+    <t>qasew21@gmail.com</t>
+  </si>
+  <si>
+    <t>qas32d31@gmail.com</t>
+  </si>
+  <si>
+    <t>testwell</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1003,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1042,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1123,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,16 +1162,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>62</v>
@@ -1174,21 +1180,21 @@
         <v>63</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>62</v>
@@ -1197,21 +1203,21 @@
         <v>63</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>62</v>
@@ -1220,7 +1226,7 @@
         <v>63</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>TestCases</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -239,15 +236,6 @@
     <t>TestUsey</t>
   </si>
   <si>
-    <t>new12t1@gmail.com</t>
-  </si>
-  <si>
-    <t>qasew21@gmail.com</t>
-  </si>
-  <si>
-    <t>qas32d31@gmail.com</t>
-  </si>
-  <si>
     <t>testwell</t>
   </si>
   <si>
@@ -258,6 +246,21 @@
   </si>
   <si>
     <t>2008</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>neew12t1@gmail.com</t>
+  </si>
+  <si>
+    <t>qajsew21@gmail.com</t>
+  </si>
+  <si>
+    <t>qajs32d31@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1006,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1042,10 +1045,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" activeCellId="3" sqref="E4 A2 A3 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,71 +1165,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProjectDataDriven/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>TestCases</t>
   </si>
@@ -248,19 +248,16 @@
     <t>2008</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>neew12t1@gmail.com</t>
-  </si>
-  <si>
-    <t>qajsew21@gmail.com</t>
-  </si>
-  <si>
-    <t>qajs32d31@gmail.com</t>
+    <t>nesew12t1@gmail.com</t>
+  </si>
+  <si>
+    <t>qajsdew21@gmail.com</t>
+  </si>
+  <si>
+    <t>qajsf32d31@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1123,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="3" sqref="E4 A2 A3 A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1162,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>67</v>
@@ -1177,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>62</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>68</v>
@@ -1211,7 +1208,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>69</v>
@@ -1223,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>62</v>
